--- a/data/trans_orig/barthel-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,59</t>
+          <t>96,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,06</t>
+          <t>96,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,55</t>
+          <t>94,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,64</t>
+          <t>95,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,93</t>
+          <t>95,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,57</t>
+          <t>92,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,31</t>
+          <t>93,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92,33</t>
+          <t>91,37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>98,31</t>
+          <t>96,08</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,62</t>
+          <t>94,45</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>93,46</t>
+          <t>94,15</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>94,44</t>
+          <t>93,36</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,94; 100,0</t>
+          <t>93,97; 97,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,88; 99,43</t>
+          <t>93,57; 98,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,54; 97,34</t>
+          <t>91,87; 96,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94,02; 98,99</t>
+          <t>94,2; 96,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,99; 99,22</t>
+          <t>92,39; 97,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,97; 97,19</t>
+          <t>89,71; 94,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,65; 97,21</t>
+          <t>91,2; 95,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,3; 94,66</t>
+          <t>89,68; 92,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>94,49; 99,52</t>
+          <t>93,98; 97,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,88; 98,13</t>
+          <t>92,35; 95,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>88,06; 96,08</t>
+          <t>92,39; 95,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,18; 96,1</t>
+          <t>92,15; 94,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,39</t>
+          <t>97,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,51</t>
+          <t>93,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,94</t>
+          <t>95,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,26</t>
+          <t>95,55</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,66</t>
+          <t>94,98</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,34</t>
+          <t>89,03</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>93,75</t>
+          <t>93,77</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,98</t>
+          <t>91,51</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,55</t>
+          <t>95,93</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>94,24</t>
+          <t>90,95</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,27</t>
+          <t>94,65</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>92,94</t>
+          <t>93,22</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,43; 97,5</t>
+          <t>95,07; 98,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,78; 98,45</t>
+          <t>89,77; 95,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,23; 97,08</t>
+          <t>93,28; 97,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,37; 96,68</t>
+          <t>93,6; 96,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,88; 97,67</t>
+          <t>92,45; 96,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,81; 94,68</t>
+          <t>85,73; 91,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,01; 95,76</t>
+          <t>90,33; 95,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,76; 92,77</t>
+          <t>89,66; 93,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,05</t>
+          <t>94,18; 97,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,07</t>
+          <t>88,63; 92,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,23; 95,76</t>
+          <t>92,82; 96,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,55; 94,23</t>
+          <t>91,85; 94,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>97,11</t>
+          <t>98,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,33</t>
+          <t>94,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,81</t>
+          <t>96,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,53</t>
+          <t>96,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,98</t>
+          <t>95,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,03</t>
+          <t>89,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,77</t>
+          <t>91,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,5</t>
+          <t>96,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,93</t>
+          <t>97,04</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,95</t>
+          <t>91,84</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>94,65</t>
+          <t>93,76</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,19</t>
+          <t>96,91</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,07; 98,44</t>
+          <t>96,82; 99,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,77; 95,37</t>
+          <t>88,56; 97,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,28; 97,32</t>
+          <t>94,38; 98,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,54; 96,82</t>
+          <t>95,1; 97,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,71</t>
+          <t>93,1; 97,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,73; 91,81</t>
+          <t>85,4; 93,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,33; 95,56</t>
+          <t>87,37; 94,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,68; 93,18</t>
+          <t>92,47; 99,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,18; 97,1</t>
+          <t>95,47; 98,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,63; 92,64</t>
+          <t>88,89; 94,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,82; 96,01</t>
+          <t>90,84; 95,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>91,83; 94,29</t>
+          <t>94,39; 98,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,69</t>
+          <t>97,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,4</t>
+          <t>95,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>96,73</t>
+          <t>97,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,78</t>
+          <t>96,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,78</t>
+          <t>95,68</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,96</t>
+          <t>93,34</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>91,36</t>
+          <t>94,62</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,58</t>
+          <t>93,26</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>97,04</t>
+          <t>96,48</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>91,84</t>
+          <t>94,3</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>93,76</t>
+          <t>95,8</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>95,99</t>
+          <t>94,84</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,82; 99,43</t>
+          <t>95,35; 98,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,56; 97,24</t>
+          <t>93,06; 97,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,1</t>
+          <t>95,62; 98,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,05; 97,92</t>
+          <t>95,76; 97,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,1; 97,5</t>
+          <t>93,61; 97,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,4; 93,07</t>
+          <t>90,79; 95,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,37; 94,38</t>
+          <t>92,35; 96,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,21; 98,51</t>
+          <t>91,73; 94,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,47; 98,13</t>
+          <t>95,17; 97,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>88,89; 94,01</t>
+          <t>92,48; 95,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,84; 95,41</t>
+          <t>94,38; 96,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,15; 98,26</t>
+          <t>93,89; 95,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>97,69</t>
+          <t>97,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95,76</t>
+          <t>95,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>97,45</t>
+          <t>96,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,93</t>
+          <t>96,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,68</t>
+          <t>95,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,34</t>
+          <t>91,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,62</t>
+          <t>93,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>92,93</t>
+          <t>93,85</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>96,48</t>
+          <t>96,35</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>94,3</t>
+          <t>92,98</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>95,8</t>
+          <t>94,72</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>94,6</t>
+          <t>94,8</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,35; 98,76</t>
+          <t>96,54; 98,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,4</t>
+          <t>93,51; 96,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,62; 98,39</t>
+          <t>95,15; 96,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,76; 97,78</t>
+          <t>95,59; 96,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,61; 97,2</t>
+          <t>94,3; 96,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,79; 95,11</t>
+          <t>89,94; 92,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,35; 96,09</t>
+          <t>92,25; 94,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>91,01; 94,27</t>
+          <t>92,07; 96,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,17; 97,58</t>
+          <t>95,63; 96,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>92,48; 95,64</t>
+          <t>92,0; 93,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>94,38; 96,79</t>
+          <t>93,97; 95,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,38; 95,5</t>
+          <t>93,92; 96,46</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>97,42</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>95,08</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>96,19</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>96,28</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>95,55</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>91,4</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>93,61</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>93,01</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>96,35</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>92,98</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>94,72</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>94,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>96,54; 98,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>93,51; 96,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>95,15; 96,98</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>95,55; 96,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>94,3; 96,41</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>89,94; 92,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>92,25; 94,66</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>91,82; 95,1</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>95,63; 96,99</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>92,0; 93,87</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>93,97; 95,5</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>93,67; 95,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/barthel-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,97; 97,96</t>
+          <t>93,8; 98,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,57; 98,46</t>
+          <t>93,85; 98,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,87; 96,62</t>
+          <t>91,7; 96,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94,2; 96,94</t>
+          <t>94,19; 97,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,39; 97,54</t>
+          <t>92,84; 97,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,71; 94,69</t>
+          <t>89,53; 94,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,2; 95,65</t>
+          <t>90,85; 95,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,68; 92,73</t>
+          <t>89,54; 92,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,98; 97,35</t>
+          <t>94,14; 97,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>92,35; 95,93</t>
+          <t>92,54; 96,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,39; 95,55</t>
+          <t>92,36; 95,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,15; 94,35</t>
+          <t>92,19; 94,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,07; 98,44</t>
+          <t>94,82; 98,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,77; 95,37</t>
+          <t>90,06; 95,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,28; 97,32</t>
+          <t>93,48; 97,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,6; 96,85</t>
+          <t>93,87; 97,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,71</t>
+          <t>92,54; 96,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,73; 91,81</t>
+          <t>85,56; 91,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,33; 95,56</t>
+          <t>90,31; 95,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,66; 93,16</t>
+          <t>89,77; 93,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,18; 97,1</t>
+          <t>94,45; 97,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>88,63; 92,64</t>
+          <t>88,25; 92,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,82; 96,01</t>
+          <t>92,84; 96,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,85; 94,3</t>
+          <t>91,91; 94,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,82; 99,43</t>
+          <t>96,89; 99,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,56; 97,24</t>
+          <t>88,37; 97,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,1</t>
+          <t>94,28; 98,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,1; 97,93</t>
+          <t>94,81; 97,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,1; 97,5</t>
+          <t>93,08; 97,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,4; 93,07</t>
+          <t>85,21; 92,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,37; 94,38</t>
+          <t>87,22; 94,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,47; 99,16</t>
+          <t>92,39; 99,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,47; 98,13</t>
+          <t>95,54; 98,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,89; 94,01</t>
+          <t>88,51; 94,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,84; 95,41</t>
+          <t>91,21; 95,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>94,39; 98,98</t>
+          <t>94,34; 98,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,35; 98,76</t>
+          <t>95,38; 98,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,4</t>
+          <t>93,02; 97,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,62; 98,39</t>
+          <t>95,74; 98,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,76; 97,79</t>
+          <t>95,72; 97,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,61; 97,2</t>
+          <t>93,69; 97,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,79; 95,11</t>
+          <t>90,75; 95,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,35; 96,09</t>
+          <t>92,69; 96,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,73; 94,5</t>
+          <t>91,78; 94,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,17; 97,58</t>
+          <t>94,87; 97,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,48; 95,64</t>
+          <t>92,67; 95,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94,38; 96,79</t>
+          <t>94,54; 96,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,89; 95,72</t>
+          <t>93,9; 95,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,54; 98,07</t>
+          <t>96,28; 98,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,29</t>
+          <t>93,51; 96,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,15; 96,98</t>
+          <t>95,12; 97,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,59; 96,87</t>
+          <t>95,61; 96,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,41</t>
+          <t>94,41; 96,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>89,94; 92,75</t>
+          <t>89,78; 92,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,25; 94,66</t>
+          <t>92,27; 94,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,58</t>
+          <t>92,05; 96,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,63; 96,99</t>
+          <t>95,6; 96,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>92,0; 93,87</t>
+          <t>91,91; 93,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,5</t>
+          <t>93,8; 95,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,92; 96,46</t>
+          <t>93,93; 96,49</t>
         </is>
       </c>
     </row>
